--- a/nwa_projekt/Nutzwertanalyse-ausgefüllt.xlsx
+++ b/nwa_projekt/Nutzwertanalyse-ausgefüllt.xlsx
@@ -32,7 +32,7 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">Erweiterbarkeit/Skalierbarkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Homeoffice Fähhigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Softwarekompabilität</t>
+    <t xml:space="preserve">Homeoffice Fähigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonomie</t>
   </si>
   <si>
     <t xml:space="preserve">Support &amp; Garantie</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Verfügbarkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergonomie</t>
+    <t xml:space="preserve">Softwarekompatibilität</t>
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
@@ -922,10 +922,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:N29"/>
+  <dimension ref="B1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1460,178 +1460,147 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25" t="n">
-        <f aca="false">$D15*E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25" t="n">
-        <f aca="false">$D15*G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25" t="n">
-        <f aca="false">$D15*I15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25" t="n">
-        <f aca="false">$D15*K15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25" t="n">
-        <f aca="false">$D15*M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
+    <row r="15" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="23" t="n">
-        <f aca="false">SUM(D6:D15)</f>
+      <c r="D16" s="23" t="n">
+        <f aca="false">SUM(D6:D14)</f>
         <v>1</v>
       </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="25" t="n">
+        <f aca="false">SUM(F6:F14)</f>
+        <v>2.85</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="25" t="n">
+        <f aca="false">SUM(H6:H14)</f>
+        <v>4.65</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="25" t="n">
+        <f aca="false">SUM(J6:J14)</f>
+        <v>4.55</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="25" t="n">
+        <f aca="false">SUM(L6:L14)</f>
+        <v>4.5</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="25" t="n">
+        <f aca="false">SUM(N6:N14)</f>
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="25" t="n">
-        <f aca="false">SUM(F6:F15)</f>
-        <v>2.85</v>
-      </c>
+      <c r="F17" s="27"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="25" t="n">
-        <f aca="false">SUM(H6:H15)</f>
-        <v>4.65</v>
-      </c>
+      <c r="H17" s="27"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="25" t="n">
-        <f aca="false">SUM(J6:J15)</f>
-        <v>4.55</v>
-      </c>
+      <c r="J17" s="27"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="25" t="n">
-        <f aca="false">SUM(L6:L15)</f>
-        <v>4.5</v>
-      </c>
+      <c r="L17" s="27"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="25" t="n">
-        <f aca="false">SUM(N6:N15)</f>
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="s">
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31" t="n">
-        <f aca="false">RANK(F17,($F17~$H17~$J17~$L17~N17))</f>
-        <v>5</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31" t="n">
-        <f aca="false">RANK(H17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="D18" s="21"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31" t="n">
+        <f aca="false">RANK(F16,($F16~$H16~$J16~$L16~N16))</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31" t="n">
+        <f aca="false">RANK(H16,($F16~$H16~$J16~$L16~N16))</f>
         <v>1</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31" t="n">
-        <f aca="false">RANK(J17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="I18" s="32"/>
+      <c r="J18" s="31" t="n">
+        <f aca="false">RANK(J16,($F16~$H16~$J16~$L16~N16))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31" t="n">
-        <f aca="false">RANK(L17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31" t="n">
+        <f aca="false">RANK(L16,($F16~$H16~$J16~$L16~N16))</f>
         <v>3</v>
       </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31" t="n">
-        <f aca="false">RANK(N17,($F17~$H17~$J17~$L17~N17))</f>
+      <c r="M18" s="32"/>
+      <c r="N18" s="31" t="n">
+        <f aca="false">RANK(N16,($F16~$H16~$J16~$L16~N16))</f>
         <v>4</v>
       </c>
     </row>
+    <row r="20" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="K20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="34"/>
+    </row>
     <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="K21" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="34"/>
+      <c r="K21" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K22" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L22" s="35"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="35"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L24" s="35"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K25" s="35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="35"/>
-    </row>
+    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="B2:C2"/>
@@ -1646,12 +1615,12 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
